--- a/PolicyEffectiveness/0-DayLag_South CarolinaPolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_South CarolinaPolicy.xlsx
@@ -1963,7 +1963,7 @@
         <v>34</v>
       </c>
       <c r="B19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -1975,10 +1975,10 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>35</v>
       </c>
       <c r="B20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -2031,10 +2031,10 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -2075,7 +2075,7 @@
         <v>36</v>
       </c>
       <c r="B21">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -2087,10 +2087,10 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>37</v>
       </c>
       <c r="B22">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>38</v>
       </c>
       <c r="B23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2243,7 +2243,7 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -2255,10 +2255,10 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2299,7 +2299,7 @@
         <v>40</v>
       </c>
       <c r="B25">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -2311,10 +2311,10 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -2355,7 +2355,7 @@
         <v>41</v>
       </c>
       <c r="B26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -2367,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -2411,7 +2411,7 @@
         <v>42</v>
       </c>
       <c r="B27">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -2423,10 +2423,10 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2467,7 +2467,7 @@
         <v>43</v>
       </c>
       <c r="B28">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -2479,10 +2479,10 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>44</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -2535,10 +2535,10 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -2579,7 +2579,7 @@
         <v>45</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -2591,10 +2591,10 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -2635,7 +2635,7 @@
         <v>46</v>
       </c>
       <c r="B31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -2647,10 +2647,10 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -2691,7 +2691,7 @@
         <v>47</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -2703,10 +2703,10 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H32">
         <v>0</v>
@@ -2747,7 +2747,7 @@
         <v>48</v>
       </c>
       <c r="B33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2759,10 +2759,10 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2771,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>1</v>
@@ -2803,7 +2803,7 @@
         <v>49</v>
       </c>
       <c r="B34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2815,10 +2815,10 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H34">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2859,7 +2859,7 @@
         <v>50</v>
       </c>
       <c r="B35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2871,10 +2871,10 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
@@ -2883,7 +2883,7 @@
         <v>0</v>
       </c>
       <c r="J35">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K35">
         <v>1</v>
@@ -2915,7 +2915,7 @@
         <v>51</v>
       </c>
       <c r="B36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2927,10 +2927,10 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -2939,7 +2939,7 @@
         <v>0</v>
       </c>
       <c r="J36">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -2971,7 +2971,7 @@
         <v>52</v>
       </c>
       <c r="B37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2983,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H37">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>53</v>
       </c>
       <c r="B38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -3039,10 +3039,10 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K38">
         <v>1</v>
@@ -3083,7 +3083,7 @@
         <v>54</v>
       </c>
       <c r="B39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -3095,19 +3095,19 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K39">
         <v>1</v>
@@ -3139,7 +3139,7 @@
         <v>55</v>
       </c>
       <c r="B40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -3151,19 +3151,19 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K40">
         <v>1</v>
@@ -3195,7 +3195,7 @@
         <v>56</v>
       </c>
       <c r="B41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -3207,19 +3207,19 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K41">
         <v>1</v>
@@ -3251,7 +3251,7 @@
         <v>57</v>
       </c>
       <c r="B42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -3263,19 +3263,19 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K42">
         <v>1</v>
@@ -3307,7 +3307,7 @@
         <v>58</v>
       </c>
       <c r="B43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -3319,19 +3319,19 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
       </c>
       <c r="J43">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K43">
         <v>1</v>
@@ -3363,7 +3363,7 @@
         <v>59</v>
       </c>
       <c r="B44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -3375,19 +3375,19 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>1</v>
@@ -3419,7 +3419,7 @@
         <v>60</v>
       </c>
       <c r="B45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -3431,19 +3431,19 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>1</v>
@@ -3475,7 +3475,7 @@
         <v>61</v>
       </c>
       <c r="B46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -3487,19 +3487,19 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
       </c>
       <c r="J46">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>1</v>
@@ -3531,7 +3531,7 @@
         <v>62</v>
       </c>
       <c r="B47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -3543,19 +3543,19 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>1</v>
@@ -3587,7 +3587,7 @@
         <v>63</v>
       </c>
       <c r="B48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -3599,19 +3599,19 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
       </c>
       <c r="J48">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -3643,7 +3643,7 @@
         <v>64</v>
       </c>
       <c r="B49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -3655,19 +3655,19 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>1</v>
@@ -3699,7 +3699,7 @@
         <v>65</v>
       </c>
       <c r="B50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
       </c>
       <c r="J50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>1</v>
@@ -3755,7 +3755,7 @@
         <v>66</v>
       </c>
       <c r="B51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -3767,19 +3767,19 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
       </c>
       <c r="J51">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K51">
         <v>1</v>
@@ -3811,7 +3811,7 @@
         <v>67</v>
       </c>
       <c r="B52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -3823,19 +3823,19 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
       </c>
       <c r="J52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K52">
         <v>1</v>
@@ -3867,7 +3867,7 @@
         <v>68</v>
       </c>
       <c r="B53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -3879,19 +3879,19 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3923,7 +3923,7 @@
         <v>69</v>
       </c>
       <c r="B54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -3935,19 +3935,19 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
       </c>
       <c r="J54">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K54">
         <v>0.3333333333333333</v>
@@ -3979,7 +3979,7 @@
         <v>70</v>
       </c>
       <c r="B55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3991,19 +3991,19 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G55">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
       </c>
       <c r="J55">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K55">
         <v>0.3333333333333333</v>
@@ -4035,7 +4035,7 @@
         <v>71</v>
       </c>
       <c r="B56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -4047,19 +4047,19 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
       </c>
       <c r="J56">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K56">
         <v>0.3333333333333333</v>
@@ -4091,7 +4091,7 @@
         <v>72</v>
       </c>
       <c r="B57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
       </c>
       <c r="J57">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K57">
         <v>0.3333333333333333</v>
@@ -4147,7 +4147,7 @@
         <v>73</v>
       </c>
       <c r="B58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -4159,19 +4159,19 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
       </c>
       <c r="J58">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K58">
         <v>0.3333333333333333</v>
@@ -4203,7 +4203,7 @@
         <v>74</v>
       </c>
       <c r="B59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -4215,19 +4215,19 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
       </c>
       <c r="J59">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K59">
         <v>0.3333333333333333</v>
@@ -4259,7 +4259,7 @@
         <v>75</v>
       </c>
       <c r="B60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -4271,19 +4271,19 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
       </c>
       <c r="J60">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K60">
         <v>0.3333333333333333</v>
@@ -4315,7 +4315,7 @@
         <v>76</v>
       </c>
       <c r="B61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -4327,19 +4327,19 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
       </c>
       <c r="J61">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K61">
         <v>0.3333333333333333</v>
@@ -4371,7 +4371,7 @@
         <v>77</v>
       </c>
       <c r="B62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -4383,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
       </c>
       <c r="J62">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K62">
         <v>0.3333333333333333</v>
@@ -4427,7 +4427,7 @@
         <v>78</v>
       </c>
       <c r="B63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -4439,19 +4439,19 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K63">
         <v>0.3333333333333333</v>
@@ -4483,7 +4483,7 @@
         <v>79</v>
       </c>
       <c r="B64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -4495,19 +4495,19 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K64">
         <v>0.3333333333333333</v>
@@ -4539,7 +4539,7 @@
         <v>80</v>
       </c>
       <c r="B65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -4551,19 +4551,19 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K65">
         <v>0.3333333333333333</v>
@@ -4595,7 +4595,7 @@
         <v>81</v>
       </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -4607,19 +4607,19 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K66">
         <v>0.3333333333333333</v>
@@ -4651,7 +4651,7 @@
         <v>82</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4663,19 +4663,19 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
       </c>
       <c r="J67">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K67">
         <v>0.3333333333333333</v>
@@ -4707,7 +4707,7 @@
         <v>83</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4719,19 +4719,19 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K68">
         <v>0.3333333333333333</v>
@@ -4763,7 +4763,7 @@
         <v>84</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4775,19 +4775,19 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K69">
         <v>0.3333333333333333</v>
@@ -4819,7 +4819,7 @@
         <v>85</v>
       </c>
       <c r="B70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4831,19 +4831,19 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K70">
         <v>0.3333333333333333</v>
@@ -4875,7 +4875,7 @@
         <v>86</v>
       </c>
       <c r="B71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4887,19 +4887,19 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K71">
         <v>0.3333333333333333</v>
@@ -4931,7 +4931,7 @@
         <v>87</v>
       </c>
       <c r="B72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4943,19 +4943,19 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K72">
         <v>0.3333333333333333</v>
@@ -4987,7 +4987,7 @@
         <v>88</v>
       </c>
       <c r="B73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4999,19 +4999,19 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K73">
         <v>0.3333333333333333</v>
@@ -5055,19 +5055,19 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G74">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K74">
         <v>0.3333333333333333</v>
@@ -5111,19 +5111,19 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G75">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K75">
         <v>0.3333333333333333</v>
@@ -5167,19 +5167,19 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G76">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K76">
         <v>0.3333333333333333</v>
@@ -5223,19 +5223,19 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G77">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
       </c>
       <c r="J77">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K77">
         <v>0.3333333333333333</v>
@@ -5279,19 +5279,19 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G78">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K78">
         <v>0.3333333333333333</v>
@@ -5335,19 +5335,19 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G79">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K79">
         <v>0.3333333333333333</v>
@@ -5391,19 +5391,19 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G80">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
       </c>
       <c r="J80">
-        <v>0.25</v>
+        <v>0.75</v>
       </c>
       <c r="K80">
         <v>0.3333333333333333</v>
@@ -5447,19 +5447,19 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>0.5</v>
-      </c>
-      <c r="H81">
-        <v>1</v>
-      </c>
-      <c r="I81">
-        <v>0</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -5503,19 +5503,19 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>0.5</v>
-      </c>
-      <c r="H82">
-        <v>1</v>
-      </c>
-      <c r="I82">
-        <v>0</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -5559,19 +5559,19 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
         <v>0.5</v>
-      </c>
-      <c r="H83">
-        <v>1</v>
-      </c>
-      <c r="I83">
-        <v>0</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -5615,19 +5615,19 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84">
         <v>0.5</v>
-      </c>
-      <c r="H84">
-        <v>1</v>
-      </c>
-      <c r="I84">
-        <v>0</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -5671,19 +5671,19 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
         <v>0.5</v>
-      </c>
-      <c r="H85">
-        <v>1</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -5727,19 +5727,19 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
         <v>0.5</v>
-      </c>
-      <c r="H86">
-        <v>1</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -5783,19 +5783,19 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
         <v>0.5</v>
-      </c>
-      <c r="H87">
-        <v>1</v>
-      </c>
-      <c r="I87">
-        <v>0</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -5839,19 +5839,19 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <v>0</v>
+      </c>
+      <c r="J88">
         <v>0.5</v>
-      </c>
-      <c r="H88">
-        <v>1</v>
-      </c>
-      <c r="I88">
-        <v>0</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -5895,13 +5895,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G89">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5951,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G90">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6007,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G92">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G93">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6231,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6343,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G97">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6399,13 +6399,13 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G98">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6455,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G99">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6567,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G102">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -6679,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G103">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -6791,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G105">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -6847,13 +6847,13 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G106">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -6903,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G107">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G108">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7015,13 +7015,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G109">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7071,13 +7071,13 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G110">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -7127,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G111">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7239,13 +7239,13 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G113">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7295,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -7351,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G115">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G116">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -7463,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G117">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -7519,13 +7519,13 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G118">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -7575,13 +7575,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G119">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G120">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -7687,13 +7687,13 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G121">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -7743,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G122">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G123">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -7855,13 +7855,13 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G124">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -7911,13 +7911,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G125">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -7967,13 +7967,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G126">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -8023,13 +8023,13 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G127">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -8079,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G128">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8135,13 +8135,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G129">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8191,13 +8191,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G130">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8247,13 +8247,13 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G131">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -8303,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G132">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -8359,13 +8359,13 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G133">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -8415,13 +8415,13 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G134">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -8471,13 +8471,13 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G135">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -8527,13 +8527,13 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G136">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -8583,13 +8583,13 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G137">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -8639,13 +8639,13 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G138">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G139">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -8751,13 +8751,13 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G140">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -8807,13 +8807,13 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G141">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8863,13 +8863,13 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G142">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8919,13 +8919,13 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G143">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8975,13 +8975,13 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G144">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -9031,13 +9031,13 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G145">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -9087,13 +9087,13 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G146">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9143,13 +9143,13 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G147">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -9199,13 +9199,13 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G148">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G149">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -9311,13 +9311,13 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G150">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9367,13 +9367,13 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G151">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9423,13 +9423,13 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G152">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G153">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9535,13 +9535,13 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G154">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -9591,13 +9591,13 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G155">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -9647,13 +9647,13 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G156">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -9703,13 +9703,13 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G157">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
